--- a/data/dataspectra.xlsx
+++ b/data/dataspectra.xlsx
@@ -14,9 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="9">
   <si>
     <t>Wavelength</t>
+  </si>
+  <si>
+    <t>Absorbace Filtrate</t>
+  </si>
+  <si>
+    <t>Absorbace S1</t>
+  </si>
+  <si>
+    <t>Absorbace P1</t>
   </si>
   <si>
     <t>Absorbance P1-5 Med</t>
@@ -29,6 +38,9 @@
   </si>
   <si>
     <t>Absorbace P2-4 High</t>
+  </si>
+  <si>
+    <t>NaN</t>
   </si>
 </sst>
 </file>
@@ -386,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,701 +420,1079 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>200</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>1.512</v>
+      </c>
+      <c r="E2">
         <v>0.142</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>0.251</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>0.065</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>0.639</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>205</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3">
         <v>0.114</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>0.257</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>0.146</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>0.695</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>210</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2.57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
         <v>0.092</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>0.432</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>0.146</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>0.852</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>215</v>
       </c>
       <c r="B5">
+        <v>2.421</v>
+      </c>
+      <c r="C5">
+        <v>2.785</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
         <v>0.067</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>0.373</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>0.199</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>0.652</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>220</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3.099</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
         <v>0.15</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>0.384</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>0.171</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>0.643</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>225</v>
       </c>
       <c r="B7">
+        <v>3.925</v>
+      </c>
+      <c r="C7">
+        <v>3.742</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7">
         <v>0.348</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>0.72</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>0.415</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>0.893</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>230</v>
       </c>
       <c r="B8">
+        <v>4.243</v>
+      </c>
+      <c r="C8">
+        <v>4.536</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
         <v>1.216</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>1.486</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>1.339</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>1.587</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>235</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>4.89</v>
+      </c>
+      <c r="D9">
+        <v>4.469</v>
+      </c>
+      <c r="E9">
         <v>1.374</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>2.02</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>1.778</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>2.229</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>240</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>3.999</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
         <v>1.043</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>2.451</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>2.179</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>2.743</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>245</v>
       </c>
       <c r="B11">
+        <v>4.428</v>
+      </c>
+      <c r="C11">
+        <v>4.17</v>
+      </c>
+      <c r="D11">
+        <v>4.416</v>
+      </c>
+      <c r="E11">
         <v>0.65</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>1.99</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>2.104</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>3.117</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>250</v>
       </c>
       <c r="B12">
+        <v>4.128</v>
+      </c>
+      <c r="C12">
+        <v>4.621</v>
+      </c>
+      <c r="D12">
+        <v>4.603</v>
+      </c>
+      <c r="E12">
         <v>0.372</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>1.405</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>1.133</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>3.235</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>255</v>
       </c>
       <c r="B13">
+        <v>4.463</v>
+      </c>
+      <c r="C13">
+        <v>3.901</v>
+      </c>
+      <c r="D13">
+        <v>3.969</v>
+      </c>
+      <c r="E13">
         <v>0.206</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>1.097</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>0.495</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>3.196</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>260</v>
       </c>
       <c r="B14">
+        <v>4.157</v>
+      </c>
+      <c r="C14">
+        <v>4.057</v>
+      </c>
+      <c r="D14">
+        <v>4.359</v>
+      </c>
+      <c r="E14">
         <v>0.128</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>1.032</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>0.202</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>3.247</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>265</v>
       </c>
       <c r="B15">
+        <v>3.878</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
+        <v>4.195</v>
+      </c>
+      <c r="E15">
         <v>0.1</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>1.079</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>0.098</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>3.162</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>270</v>
       </c>
       <c r="B16">
+        <v>4.26</v>
+      </c>
+      <c r="C16">
+        <v>4.062</v>
+      </c>
+      <c r="D16">
+        <v>4.259</v>
+      </c>
+      <c r="E16">
         <v>0.08799999999999999</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>1.156</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>0.062</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>3.214</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>275</v>
       </c>
       <c r="B17">
+        <v>3.895</v>
+      </c>
+      <c r="C17">
+        <v>3.989</v>
+      </c>
+      <c r="D17">
+        <v>3.972</v>
+      </c>
+      <c r="E17">
         <v>0.08</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <v>1.199</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>0.05</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>3.19</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>280</v>
       </c>
       <c r="B18">
+        <v>3.904</v>
+      </c>
+      <c r="C18">
+        <v>3.957</v>
+      </c>
+      <c r="D18">
+        <v>3.882</v>
+      </c>
+      <c r="E18">
         <v>0.07199999999999999</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <v>1.154</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>0.044</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>3.2</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>285</v>
       </c>
       <c r="B19">
+        <v>3.909</v>
+      </c>
+      <c r="C19">
+        <v>4.002</v>
+      </c>
+      <c r="D19">
+        <v>3.947</v>
+      </c>
+      <c r="E19">
         <v>0.064</v>
       </c>
-      <c r="C19">
+      <c r="F19">
         <v>0.994</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>0.037</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>3.202</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>290</v>
       </c>
       <c r="B20">
+        <v>4.008</v>
+      </c>
+      <c r="C20">
+        <v>3.821</v>
+      </c>
+      <c r="D20">
+        <v>3.961</v>
+      </c>
+      <c r="E20">
         <v>0.054</v>
       </c>
-      <c r="C20">
+      <c r="F20">
         <v>0.758</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <v>0.028</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>3.142</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>295</v>
       </c>
       <c r="B21">
+        <v>3.782</v>
+      </c>
+      <c r="C21">
+        <v>3.824</v>
+      </c>
+      <c r="D21">
+        <v>3.826</v>
+      </c>
+      <c r="E21">
         <v>0.045</v>
       </c>
-      <c r="C21">
+      <c r="F21">
         <v>0.497</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>0.018</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>3.044</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>300</v>
       </c>
       <c r="B22">
+        <v>3.707</v>
+      </c>
+      <c r="C22">
+        <v>3.824</v>
+      </c>
+      <c r="D22">
+        <v>3.765</v>
+      </c>
+      <c r="E22">
         <v>0.039</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <v>0.36</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <v>0.013</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>1.995</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>305</v>
       </c>
       <c r="B23">
+        <v>3.694</v>
+      </c>
+      <c r="C23">
+        <v>3.679</v>
+      </c>
+      <c r="D23">
+        <v>3.718</v>
+      </c>
+      <c r="E23">
         <v>0.033</v>
       </c>
-      <c r="C23">
+      <c r="F23">
         <v>0.285</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <v>0.01</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>1.018</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>310</v>
       </c>
       <c r="B24">
+        <v>3.697</v>
+      </c>
+      <c r="C24">
+        <v>3.708</v>
+      </c>
+      <c r="D24">
+        <v>3.619</v>
+      </c>
+      <c r="E24">
         <v>0.029</v>
       </c>
-      <c r="C24">
+      <c r="F24">
         <v>0.254</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <v>0.008</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>0.666</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>315</v>
       </c>
       <c r="B25">
+        <v>3.564</v>
+      </c>
+      <c r="C25">
+        <v>3.702</v>
+      </c>
+      <c r="D25">
+        <v>3.644</v>
+      </c>
+      <c r="E25">
         <v>0.025</v>
       </c>
-      <c r="C25">
+      <c r="F25">
         <v>0.237</v>
       </c>
-      <c r="D25">
+      <c r="G25">
         <v>0.008</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>0.569</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>320</v>
       </c>
       <c r="B26">
+        <v>3.571</v>
+      </c>
+      <c r="C26">
+        <v>3.759</v>
+      </c>
+      <c r="D26">
+        <v>3.595</v>
+      </c>
+      <c r="E26">
         <v>0.022</v>
       </c>
-      <c r="C26">
+      <c r="F26">
         <v>0.225</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <v>0.007</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>0.545</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>325</v>
       </c>
       <c r="B27">
+        <v>3.559</v>
+      </c>
+      <c r="C27">
+        <v>3.502</v>
+      </c>
+      <c r="D27">
+        <v>3.601</v>
+      </c>
+      <c r="E27">
         <v>0.019</v>
       </c>
-      <c r="C27">
+      <c r="F27">
         <v>0.213</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <v>0.007</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>0.533</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>330</v>
       </c>
       <c r="B28">
+        <v>3.637</v>
+      </c>
+      <c r="C28">
+        <v>3.693</v>
+      </c>
+      <c r="D28">
+        <v>3.591</v>
+      </c>
+      <c r="E28">
         <v>0.017</v>
       </c>
-      <c r="C28">
+      <c r="F28">
         <v>0.197</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <v>0.006</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>0.522</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>335</v>
       </c>
       <c r="B29">
+        <v>3.538</v>
+      </c>
+      <c r="C29">
+        <v>3.575</v>
+      </c>
+      <c r="D29">
+        <v>3.511</v>
+      </c>
+      <c r="E29">
         <v>0.015</v>
       </c>
-      <c r="C29">
+      <c r="F29">
         <v>0.182</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>0.006</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>0.511</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>340</v>
       </c>
       <c r="B30">
+        <v>3.54</v>
+      </c>
+      <c r="C30">
+        <v>3.464</v>
+      </c>
+      <c r="D30">
+        <v>3.479</v>
+      </c>
+      <c r="E30">
         <v>0.013</v>
       </c>
-      <c r="C30">
+      <c r="F30">
         <v>0.167</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <v>0.005</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>0.496</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>345</v>
       </c>
       <c r="B31">
+        <v>3.451</v>
+      </c>
+      <c r="C31">
+        <v>3.454</v>
+      </c>
+      <c r="D31">
+        <v>3.43</v>
+      </c>
+      <c r="E31">
         <v>0.011</v>
       </c>
-      <c r="C31">
+      <c r="F31">
         <v>0.155</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <v>0.004</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>0.481</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>350</v>
       </c>
       <c r="B32">
+        <v>3.5</v>
+      </c>
+      <c r="C32">
+        <v>3.346</v>
+      </c>
+      <c r="D32">
+        <v>3.432</v>
+      </c>
+      <c r="E32">
         <v>0.01</v>
       </c>
-      <c r="C32">
+      <c r="F32">
         <v>0.145</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <v>0.004</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>0.464</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>355</v>
       </c>
       <c r="B33">
+        <v>3.391</v>
+      </c>
+      <c r="C33">
+        <v>3.428</v>
+      </c>
+      <c r="D33">
+        <v>3.434</v>
+      </c>
+      <c r="E33">
         <v>0.008999999999999999</v>
       </c>
-      <c r="C33">
+      <c r="F33">
         <v>0.138</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <v>0.004</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>0.449</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>360</v>
       </c>
       <c r="B34">
+        <v>3.529</v>
+      </c>
+      <c r="C34">
+        <v>3.472</v>
+      </c>
+      <c r="D34">
+        <v>3.442</v>
+      </c>
+      <c r="E34">
         <v>0.008</v>
       </c>
-      <c r="C34">
+      <c r="F34">
         <v>0.132</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <v>0.003</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>0.435</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>365</v>
       </c>
       <c r="B35">
+        <v>3.417</v>
+      </c>
+      <c r="C35">
+        <v>3.402</v>
+      </c>
+      <c r="D35">
+        <v>3.529</v>
+      </c>
+      <c r="E35">
         <v>0.007</v>
       </c>
-      <c r="C35">
+      <c r="F35">
         <v>0.127</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <v>0.002</v>
       </c>
-      <c r="E35">
+      <c r="H35">
         <v>0.421</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>370</v>
       </c>
       <c r="B36">
+        <v>3.437</v>
+      </c>
+      <c r="C36">
+        <v>3.302</v>
+      </c>
+      <c r="D36">
+        <v>3.533</v>
+      </c>
+      <c r="E36">
         <v>0.006</v>
       </c>
-      <c r="C36">
+      <c r="F36">
         <v>0.121</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <v>0.002</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>0.407</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>375</v>
       </c>
       <c r="B37">
+        <v>3.479</v>
+      </c>
+      <c r="C37">
+        <v>3.55</v>
+      </c>
+      <c r="D37">
+        <v>3.417</v>
+      </c>
+      <c r="E37">
         <v>0.006</v>
       </c>
-      <c r="C37">
+      <c r="F37">
         <v>0.116</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <v>0.001</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>0.392</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>380</v>
       </c>
       <c r="B38">
+        <v>3.461</v>
+      </c>
+      <c r="C38">
+        <v>3.434</v>
+      </c>
+      <c r="D38">
+        <v>3.377</v>
+      </c>
+      <c r="E38">
         <v>0.005</v>
       </c>
-      <c r="C38">
+      <c r="F38">
         <v>0.111</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>0.378</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>385</v>
       </c>
       <c r="B39">
+        <v>3.548</v>
+      </c>
+      <c r="C39">
+        <v>3.453</v>
+      </c>
+      <c r="D39">
+        <v>3.473</v>
+      </c>
+      <c r="E39">
         <v>0.005</v>
       </c>
-      <c r="C39">
+      <c r="F39">
         <v>0.105</v>
       </c>
-      <c r="D39">
+      <c r="G39">
         <v>-0.001</v>
       </c>
-      <c r="E39">
+      <c r="H39">
         <v>0.363</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>390</v>
       </c>
       <c r="B40">
+        <v>3.37</v>
+      </c>
+      <c r="C40">
+        <v>3.486</v>
+      </c>
+      <c r="D40">
+        <v>3.385</v>
+      </c>
+      <c r="E40">
         <v>0.004</v>
       </c>
-      <c r="C40">
+      <c r="F40">
         <v>0.099</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <v>-0.002</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>0.348</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>395</v>
       </c>
       <c r="B41">
+        <v>3.499</v>
+      </c>
+      <c r="C41">
+        <v>3.446</v>
+      </c>
+      <c r="D41">
+        <v>3.266</v>
+      </c>
+      <c r="E41">
         <v>0.004</v>
       </c>
-      <c r="C41">
+      <c r="F41">
         <v>0.094</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <v>-0.003</v>
       </c>
-      <c r="E41">
+      <c r="H41">
         <v>0.332</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>400</v>
       </c>
       <c r="B42">
+        <v>3.433</v>
+      </c>
+      <c r="C42">
+        <v>3.382</v>
+      </c>
+      <c r="D42">
+        <v>2.877</v>
+      </c>
+      <c r="E42">
         <v>0.003</v>
       </c>
-      <c r="C42">
+      <c r="F42">
         <v>0.089</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <v>-0.004</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>0.317</v>
       </c>
     </row>
